--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -19,13 +19,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-10-10</t>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-11-09</t>
+    <t>2023-11-16</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -55,31 +55,13 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>654b1d23b9c08d5f94b3b040</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
+    <t>654c5bb006790685cec566c2</t>
   </si>
   <si>
     <t>arunaru0034@gmail.com</t>
   </si>
   <si>
     <t>cod</t>
-  </si>
-  <si>
-    <t>654b1f2bb9c08d5f94b3b0e0</t>
-  </si>
-  <si>
-    <t>wallet</t>
-  </si>
-  <si>
-    <t>654b1f4ab9c08d5f94b3b12d</t>
-  </si>
-  <si>
-    <t>654bc46a492f6295c36f86d2</t>
-  </si>
-  <si>
-    <t>654c5bb006790685cec566c2</t>
   </si>
   <si>
     <t>654cf289e9f2eaf3a16df36d</t>
@@ -469,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -573,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>970</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -619,7 +601,7 @@
         <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,22 +609,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,140 +632,48 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>230</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>140</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1">
-        <v>970</v>
+      <c r="H13" s="1">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t/>
   </si>
@@ -19,15 +19,12 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-10-26</t>
+    <t>2023-11-25</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-11-25</t>
-  </si>
-  <si>
     <t>Total Orders</t>
   </si>
   <si>
@@ -53,39 +50,6 @@
   </si>
   <si>
     <t>Payment Mode</t>
-  </si>
-  <si>
-    <t>6560945769353f42ebf852c1</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>roshin@gmail.com</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>6560ec422770d8ad4a3b58cc</t>
-  </si>
-  <si>
-    <t>sreeram@gmail.com</t>
-  </si>
-  <si>
-    <t>wallet</t>
-  </si>
-  <si>
-    <t>6560ecc82770d8ad4a3b5974</t>
-  </si>
-  <si>
-    <t>6560edef2770d8ad4a3b5a9e</t>
-  </si>
-  <si>
-    <t>cod</t>
-  </si>
-  <si>
-    <t>6560f485c47282abd142288c</t>
   </si>
 </sst>
 </file>
@@ -466,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -541,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,174 +531,59 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>396000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>18000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>36000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>72000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>252000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>18000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>396000</v>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
